--- a/data/טבלת הכנסת משתמשים  - סופית ינון.xlsx
+++ b/data/טבלת הכנסת משתמשים  - סופית ינון.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E0F0A-3223-4197-8C20-A7A534E697B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B387F1A1-A1BF-47A4-AB30-9B12C0350EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>שם - חובה</t>
   </si>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">מלווה </t>
   </si>
   <si>
-    <t>אחראי תוכנית&amp;רכז מוסד</t>
+    <t>אחראי תוכנית&amp;מלווה</t>
   </si>
 </sst>
 </file>
@@ -523,10 +523,10 @@
   <dimension ref="A1:AA969"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1016,12 +1016,8 @@
       <c r="C12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="9">
         <v>528827064</v>
       </c>
@@ -27858,15 +27854,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"אשכול דרום,אשכול מרכז,אשכול צפון,אשכול בני - דוד"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E13" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"מרכז,דרום,צפון,בני - דוד,אחראי תוכנית - ללא אשכול"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{32342F2E-A905-4901-831F-891F56A89C74}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C10 C12:C1048576" xr:uid="{32342F2E-A905-4901-831F-891F56A89C74}">
       <formula1>"מלווה,רכז מוסד,רכז מוסד&amp;מלווה,רכז אשכול,רכז אשכול&amp;רכז מוסד,רכז אשכול&amp;מלווה,רכז אשכול&amp;רכז מוסד&amp;מלווה,אחראי תוכנית,אחראי תוכנית&amp;רכז אשכול,אחראי תוכנית&amp;רכז מוסד,,אחראי תוכנית&amp;מלווה"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{99189A7F-9F6E-4D04-85A1-5BE39BFD4263}">
+      <formula1>"   מלווה,רכז מוסד,רכז אשכול,אחראי תוכנית,רכז מוסד&amp;מלווה, ,רכז אשכול&amp;מלווה רכז אשכול&amp;רכז מוסד,רכז אשכול&amp;רכז מוסד&amp;מלווה,אחראי תוכנית&amp;רכז אשכול,אחראי תוכנית&amp;רכז מוסד,,אחראי תוכנית&amp;מלווה"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/טבלת הכנסת משתמשים  - סופית ינון.xlsx
+++ b/data/טבלת הכנסת משתמשים  - סופית ינון.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B387F1A1-A1BF-47A4-AB30-9B12C0350EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97647D-D09F-4EC6-AD1F-BB6291CE0E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>שם - חובה</t>
   </si>
@@ -156,12 +156,24 @@
   <si>
     <t>אחראי תוכנית&amp;מלווה</t>
   </si>
+  <si>
+    <t>ים</t>
+  </si>
+  <si>
+    <t>מוטי</t>
+  </si>
+  <si>
+    <t>דש</t>
+  </si>
+  <si>
+    <t>דג</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,6 +229,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,6 +319,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,13 +540,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA969"/>
+  <dimension ref="A1:AA971"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -761,23 +781,23 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+      <c r="A6" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>39</v>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="9">
-        <v>543124511</v>
+        <v>522484652</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="3"/>
@@ -802,23 +822,23 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>38</v>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9">
-        <v>543124512</v>
+      <c r="F7" s="18">
+        <v>545422064</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="3"/>
@@ -844,22 +864,22 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>38</v>
+      <c r="C8" s="13" t="s">
+        <v>39</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>14</v>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="9">
-        <v>544817648</v>
+        <v>543124511</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="3"/>
@@ -885,22 +905,22 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="9">
-        <v>544817649</v>
+        <v>543124512</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="3"/>
@@ -926,22 +946,22 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="9">
-        <v>544817610</v>
+        <v>544817648</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="3"/>
@@ -967,22 +987,22 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>40</v>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="9">
-        <v>506795170</v>
+        <v>544817649</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -1008,18 +1028,22 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>19</v>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="9">
-        <v>528827064</v>
+        <v>544817610</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="3"/>
@@ -1045,22 +1069,22 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>19</v>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="9">
-        <v>542017565</v>
+        <v>506795170</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="3"/>
@@ -1085,60 +1109,82 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9">
+        <v>528827064</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9">
+        <v>542017565</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -27852,19 +27898,75 @@
       <c r="Z969" s="11"/>
       <c r="AA969" s="11"/>
     </row>
+    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="11"/>
+      <c r="B970" s="11"/>
+      <c r="C970" s="16"/>
+      <c r="D970" s="11"/>
+      <c r="E970" s="11"/>
+      <c r="F970" s="11"/>
+      <c r="H970" s="11"/>
+      <c r="I970" s="11"/>
+      <c r="J970" s="11"/>
+      <c r="K970" s="11"/>
+      <c r="L970" s="11"/>
+      <c r="M970" s="11"/>
+      <c r="N970" s="11"/>
+      <c r="O970" s="11"/>
+      <c r="P970" s="11"/>
+      <c r="Q970" s="11"/>
+      <c r="R970" s="11"/>
+      <c r="S970" s="11"/>
+      <c r="T970" s="11"/>
+      <c r="U970" s="11"/>
+      <c r="V970" s="11"/>
+      <c r="W970" s="11"/>
+      <c r="X970" s="11"/>
+      <c r="Y970" s="11"/>
+      <c r="Z970" s="11"/>
+      <c r="AA970" s="11"/>
+    </row>
+    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="11"/>
+      <c r="B971" s="11"/>
+      <c r="C971" s="16"/>
+      <c r="D971" s="11"/>
+      <c r="E971" s="11"/>
+      <c r="F971" s="11"/>
+      <c r="H971" s="11"/>
+      <c r="I971" s="11"/>
+      <c r="J971" s="11"/>
+      <c r="K971" s="11"/>
+      <c r="L971" s="11"/>
+      <c r="M971" s="11"/>
+      <c r="N971" s="11"/>
+      <c r="O971" s="11"/>
+      <c r="P971" s="11"/>
+      <c r="Q971" s="11"/>
+      <c r="R971" s="11"/>
+      <c r="S971" s="11"/>
+      <c r="T971" s="11"/>
+      <c r="U971" s="11"/>
+      <c r="V971" s="11"/>
+      <c r="W971" s="11"/>
+      <c r="X971" s="11"/>
+      <c r="Y971" s="11"/>
+      <c r="Z971" s="11"/>
+      <c r="AA971" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"אשכול דרום,אשכול מרכז,אשכול צפון,אשכול בני - דוד"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"מרכז,דרום,צפון,בני - דוד,אחראי תוכנית - ללא אשכול"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C10 C12:C1048576" xr:uid="{32342F2E-A905-4901-831F-891F56A89C74}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14:C1048576 C1:C12" xr:uid="{32342F2E-A905-4901-831F-891F56A89C74}">
       <formula1>"מלווה,רכז מוסד,רכז מוסד&amp;מלווה,רכז אשכול,רכז אשכול&amp;רכז מוסד,רכז אשכול&amp;מלווה,רכז אשכול&amp;רכז מוסד&amp;מלווה,אחראי תוכנית,אחראי תוכנית&amp;רכז אשכול,אחראי תוכנית&amp;רכז מוסד,,אחראי תוכנית&amp;מלווה"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{99189A7F-9F6E-4D04-85A1-5BE39BFD4263}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13" xr:uid="{99189A7F-9F6E-4D04-85A1-5BE39BFD4263}">
       <formula1>"   מלווה,רכז מוסד,רכז אשכול,אחראי תוכנית,רכז מוסד&amp;מלווה, ,רכז אשכול&amp;מלווה רכז אשכול&amp;רכז מוסד,רכז אשכול&amp;רכז מוסד&amp;מלווה,אחראי תוכנית&amp;רכז אשכול,אחראי תוכנית&amp;רכז מוסד,,אחראי תוכנית&amp;מלווה"</formula1>
     </dataValidation>
   </dataValidations>
